--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60194.50089051383</v>
+        <v>11978705.67721224</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60194.50089051383</v>
+        <v>11978705.67721224</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5397.024071811075</v>
+        <v>732498.1513814647</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5397.024071811075</v>
+        <v>732498.1513814647</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342649446.816073</v>
+        <v>55055905.62445588</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11341.47854985315</v>
+        <v>1262228.01137845</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21639.22451436226</v>
+        <v>2362609.977989031</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31936.97047887135</v>
+        <v>3462991.944599614</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42333.61425787624</v>
+        <v>4568938.995424336</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52699.97837512567</v>
+        <v>5670893.905715357</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63066.34249237508</v>
+        <v>6772848.816006377</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73432.70660962448</v>
+        <v>7874803.726297393</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83799.07072687389</v>
+        <v>8976758.636588408</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94071.04819522137</v>
+        <v>10071331.03597717</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104368.683845387</v>
+        <v>11171009.41354775</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114660.0123593152</v>
+        <v>12271530.9988552</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124844.6039949885</v>
+        <v>13366479.46949179</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135053.4283579346</v>
+        <v>14466250.25285564</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146083.7541775248</v>
+        <v>15448557.23147934</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157127.1305132493</v>
+        <v>16429689.36796785</v>
       </c>
     </row>
   </sheetData>
